--- a/SiAOD 4/SiAOD 4 test.xlsx
+++ b/SiAOD 4/SiAOD 4 test.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Последовательный" sheetId="1" r:id="rId1"/>
+    <sheet name="С барьером" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>n</t>
   </si>
@@ -96,16 +97,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -208,7 +209,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$18</c:f>
+              <c:f>Последовательный!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -231,7 +232,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$19:$A$23</c:f>
+              <c:f>Последовательный!$A$19:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -255,7 +256,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$19:$B$23</c:f>
+              <c:f>Последовательный!$B$19:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -284,7 +285,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$18</c:f>
+              <c:f>Последовательный!$C$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -307,7 +308,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$19:$A$23</c:f>
+              <c:f>Последовательный!$A$19:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -331,7 +332,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$19:$C$23</c:f>
+              <c:f>Последовательный!$C$19:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -360,7 +361,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$D$18</c:f>
+              <c:f>Последовательный!$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -383,7 +384,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$19:$A$23</c:f>
+              <c:f>Последовательный!$A$19:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -407,7 +408,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$19:$D$23</c:f>
+              <c:f>Последовательный!$D$19:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -440,11 +441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="187734560"/>
-        <c:axId val="112117352"/>
+        <c:axId val="191634024"/>
+        <c:axId val="191634808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187734560"/>
+        <c:axId val="191634024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,7 +488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112117352"/>
+        <c:crossAx val="191634808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -495,7 +496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112117352"/>
+        <c:axId val="191634808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +547,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187734560"/>
+        <c:crossAx val="191634024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -728,7 +729,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$19:$A$23</c:f>
+              <c:f>Последовательный!$A$19:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -752,7 +753,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$19:$E$23</c:f>
+              <c:f>Последовательный!$E$19:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -781,7 +782,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$18</c:f>
+              <c:f>Последовательный!$F$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -804,7 +805,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$19:$A$23</c:f>
+              <c:f>Последовательный!$A$19:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -828,7 +829,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$19:$F$23</c:f>
+              <c:f>Последовательный!$F$19:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -857,7 +858,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$G$18</c:f>
+              <c:f>Последовательный!$G$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -880,7 +881,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$19:$A$23</c:f>
+              <c:f>Последовательный!$A$19:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -904,7 +905,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$19:$G$23</c:f>
+              <c:f>Последовательный!$G$19:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -933,7 +934,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$H$18</c:f>
+              <c:f>Последовательный!$H$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -956,7 +957,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$19:$A$23</c:f>
+              <c:f>Последовательный!$A$19:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -980,7 +981,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$H$19:$H$23</c:f>
+              <c:f>Последовательный!$H$19:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1013,11 +1014,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="187192856"/>
-        <c:axId val="186562560"/>
+        <c:axId val="185886976"/>
+        <c:axId val="185889720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187192856"/>
+        <c:axId val="185886976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1061,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186562560"/>
+        <c:crossAx val="185889720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1068,7 +1069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186562560"/>
+        <c:axId val="185889720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,7 +1120,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187192856"/>
+        <c:crossAx val="185886976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1133,6 +1134,1083 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> выполнения (нс)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'С барьером'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Неотсортированный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'С барьером'!$A$19:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'С барьером'!$B$19:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'С барьером'!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>По возрастанию</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'С барьером'!$A$19:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'С барьером'!$C$19:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>362100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'С барьером'!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>По убыванию</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'С барьером'!$A$19:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'С барьером'!$D$19:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="424325616"/>
+        <c:axId val="424323656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="424325616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424323656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424323656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424325616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Количество</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> сравнений</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Теоретическая сложность, а также случай, когда элемент не найден</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'С барьером'!$A$19:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'С барьером'!$E$19:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'С барьером'!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Неотсортированный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'С барьером'!$A$19:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'С барьером'!$F$19:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25290</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>705072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'С барьером'!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>По возрастанию</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'С барьером'!$A$19:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'С барьером'!$G$19:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>636954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'С барьером'!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>По убыванию</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'С барьером'!$A$19:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'С барьером'!$H$19:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>363045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="425617448"/>
+        <c:axId val="425615096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="425617448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425615096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="425615096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425617448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1280,6 +2358,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1797,6 +2955,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2361,6 +4551,75 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2643,7 +4902,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,85 +4916,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2745,7 +5004,7 @@
       <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2892,14 +5151,14 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -2922,14 +5181,14 @@
       <c r="H27" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -2953,16 +5212,341 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:H10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
+      <c r="C19">
+        <v>400</v>
+      </c>
+      <c r="D19">
+        <v>300</v>
+      </c>
+      <c r="E19">
+        <f>A19</f>
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>94</v>
+      </c>
+      <c r="G19">
+        <v>43</v>
+      </c>
+      <c r="H19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B20">
+        <v>900</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20">
+        <v>1200</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E23" si="0">A20</f>
+        <v>1000</v>
+      </c>
+      <c r="F20">
+        <v>499</v>
+      </c>
+      <c r="G20">
+        <v>185</v>
+      </c>
+      <c r="H20">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B21">
+        <v>7300</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21">
+        <v>8300</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="F21">
+        <v>7665</v>
+      </c>
+      <c r="G21">
+        <v>1464</v>
+      </c>
+      <c r="H21">
+        <v>8535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B22">
+        <v>11900</v>
+      </c>
+      <c r="C22">
+        <v>45400</v>
+      </c>
+      <c r="D22">
+        <v>24200</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="F22">
+        <v>25290</v>
+      </c>
+      <c r="G22">
+        <v>50573</v>
+      </c>
+      <c r="H22">
+        <v>49426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B23">
+        <v>305500</v>
+      </c>
+      <c r="C23">
+        <v>362100</v>
+      </c>
+      <c r="D23">
+        <v>187700</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="F23">
+        <v>705072</v>
+      </c>
+      <c r="G23">
+        <v>636954</v>
+      </c>
+      <c r="H23">
+        <v>363045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:E18"/>
